--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apob-Olr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apob-Olr1.xlsx
@@ -534,7 +534,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H2">
         <v>0.012093</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>20.67840733333334</v>
+        <v>1.034111333333333</v>
       </c>
       <c r="N2">
-        <v>62.035222</v>
+        <v>3.102334</v>
       </c>
       <c r="O2">
-        <v>0.8628188334366713</v>
+        <v>0.4722250593604582</v>
       </c>
       <c r="P2">
-        <v>0.8628188334366714</v>
+        <v>0.4722250593604581</v>
       </c>
       <c r="Q2">
-        <v>0.0833546599606667</v>
+        <v>0.004168502784666667</v>
       </c>
       <c r="R2">
-        <v>0.7501919396460002</v>
+        <v>0.037516525062</v>
       </c>
       <c r="S2">
-        <v>0.8628188334366713</v>
+        <v>0.4722250593604582</v>
       </c>
       <c r="T2">
-        <v>0.8628188334366714</v>
+        <v>0.4722250593604581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H3">
         <v>0.012093</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.287698333333334</v>
+        <v>1.155758333333333</v>
       </c>
       <c r="N3">
-        <v>9.863095000000001</v>
+        <v>3.467275</v>
       </c>
       <c r="O3">
-        <v>0.1371811665633286</v>
+        <v>0.5277749406395418</v>
       </c>
       <c r="P3">
-        <v>0.1371811665633286</v>
+        <v>0.5277749406395419</v>
       </c>
       <c r="Q3">
-        <v>0.01325271198166667</v>
+        <v>0.004658861841666666</v>
       </c>
       <c r="R3">
-        <v>0.119274407835</v>
+        <v>0.041929756575</v>
       </c>
       <c r="S3">
-        <v>0.1371811665633286</v>
+        <v>0.5277749406395418</v>
       </c>
       <c r="T3">
-        <v>0.1371811665633286</v>
+        <v>0.5277749406395419</v>
       </c>
     </row>
   </sheetData>
